--- a/Tests/Lasttest/Lasttest_Main.xlsx
+++ b/Tests/Lasttest/Lasttest_Main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicos\Git\RPATestingGetOrdersBot\Tests\Lasttest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FF66B3-412B-4922-BFA8-7BE84383ACE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B22708-FB33-4DC4-9D66-3076AFB113D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15990" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,7 +407,7 @@
         <v>1000</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
